--- a/Fire_Alarm/RTM.update1.xlsx
+++ b/Fire_Alarm/RTM.update1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\pp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\cdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>API</t>
   </si>
@@ -108,26 +108,7 @@
     <t>SRS_005</t>
   </si>
   <si>
-    <t>SRS_007</t>
-  </si>
-  <si>
-    <t>SRS_008</t>
-  </si>
-  <si>
-    <t>SRS_012</t>
-  </si>
-  <si>
-    <t>SRS_013</t>
-  </si>
-  <si>
-    <t>CRS_003 
-CRS_004</t>
-  </si>
-  <si>
     <t>CRS_005</t>
-  </si>
-  <si>
-    <t>SRS_014</t>
   </si>
   <si>
     <t xml:space="preserve">#define tolerence
@@ -135,59 +116,117 @@
  in the config.h file </t>
   </si>
   <si>
+    <t xml:space="preserve">void Buzzer_On(void)
+,void Buzzer_Off(void) </t>
+  </si>
+  <si>
+    <t>DESIGN TAG</t>
+  </si>
+  <si>
+    <t>CODE LINE</t>
+  </si>
+  <si>
+    <t>called by: 
+u16 Read_Sensor(void)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void ADC_u8Enable(void)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">called by: 
+void Buzzer_On(void) </t>
+  </si>
+  <si>
+    <t>APP_config.h  file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THR_COUNT  variable </t>
+  </si>
+  <si>
+    <t>SRS_001</t>
+  </si>
+  <si>
+    <t>SRS_004</t>
+  </si>
+  <si>
+    <t>SRS_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRS_003 
+</t>
+  </si>
+  <si>
+    <t>CRS_004</t>
+  </si>
+  <si>
+    <t>DIO_WritePinVal(u8 idx ,*val)
+tolerance
+threshold</t>
+  </si>
+  <si>
     <t>DIO_WritePinVal(u8 idx ,*val)
 threshold
-tolerence</t>
-  </si>
-  <si>
-    <t>DIO_WritePinVal(u8 idx ,*val)
-tolerence
-threshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void Buzzer_On(void)
-,void Buzzer_Off(void) </t>
-  </si>
-  <si>
-    <t>DESIGN TAG</t>
-  </si>
-  <si>
-    <t>CODE LINE</t>
-  </si>
-  <si>
-    <t>called by: 
-u16 Read_Sensor(void)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void ADC_u8Enable(void)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">called by: 
-void Buzzer_On(void) </t>
-  </si>
-  <si>
-    <t>APP_config.h  file</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THR_COUNT  variable </t>
-  </si>
-  <si>
-    <t>SD_1</t>
-  </si>
-  <si>
-    <t>SD_2</t>
-  </si>
-  <si>
-    <t>SD_3</t>
-  </si>
-  <si>
-    <t>SD_4</t>
-  </si>
-  <si>
-    <t>SD_5</t>
-  </si>
-  <si>
-    <t>SD_6</t>
+tolerance</t>
+  </si>
+  <si>
+    <t>CDD_002</t>
+  </si>
+  <si>
+    <t>CDD_001</t>
+  </si>
+  <si>
+    <t>CDD_003</t>
+  </si>
+  <si>
+    <t>CDD_004</t>
+  </si>
+  <si>
+    <t>CDD_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST CASE TAG </t>
+  </si>
+  <si>
+    <t>TC_00_01 
+TC_00_02</t>
+  </si>
+  <si>
+    <t>TC_00_03 ,TC_00_04
+TC_00_05</t>
+  </si>
+  <si>
+    <t>TC_00_06 ,TC_00_07
+TC_00_08</t>
+  </si>
+  <si>
+    <t>TC_00_09</t>
+  </si>
+  <si>
+    <t>TC_00_10 ,TC_00_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_00_12  , TC_00_13
+TC_00_14 , TC_00_15
+TC_00_16 </t>
+  </si>
+  <si>
+    <t>TC_00_17
+TC_00_18</t>
+  </si>
+  <si>
+    <t>TC_00_19</t>
+  </si>
+  <si>
+    <t>TC_00_20 ,TC_00_21
+TC_00_22,TC_00_23</t>
+  </si>
+  <si>
+    <t>TC_00_24 , TC_00_25
+TC_00_26</t>
+  </si>
+  <si>
+    <t>TC_00_27  , TC_00_28
+TC_00_29</t>
   </si>
 </sst>
 </file>
@@ -210,15 +249,63 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,36 +313,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,296 +684,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7">
-        <v>50</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E14" s="4">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6">
-        <v>33</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6">
-        <v>42</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
+      <c r="F14" s="4"/>
+      <c r="G14" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Fire_Alarm/RTM.update1.xlsx
+++ b/Fire_Alarm/RTM.update1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>API</t>
   </si>
@@ -202,9 +202,6 @@
     <t>TC_00_09</t>
   </si>
   <si>
-    <t>TC_00_10 ,TC_00_11</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC_00_12  , TC_00_13
 TC_00_14 , TC_00_15
 TC_00_16 </t>
@@ -217,16 +214,32 @@
     <t>TC_00_19</t>
   </si>
   <si>
-    <t>TC_00_20 ,TC_00_21
-TC_00_22,TC_00_23</t>
-  </si>
-  <si>
     <t>TC_00_24 , TC_00_25
 TC_00_26</t>
   </si>
   <si>
     <t>TC_00_27  , TC_00_28
 TC_00_29</t>
+  </si>
+  <si>
+    <t>TIM0_u8ReadOF()</t>
+  </si>
+  <si>
+    <t>SRS_007</t>
+  </si>
+  <si>
+    <t>CDD_006</t>
+  </si>
+  <si>
+    <t>TC_00_09
+TC_00_10 ,TC_00_11</t>
+  </si>
+  <si>
+    <t>TC_00_20 ,TC_00_21
+TC_00_22</t>
+  </si>
+  <si>
+    <t>TC_00_23</t>
   </si>
 </sst>
 </file>
@@ -686,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +758,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,7 +784,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -790,8 +803,8 @@
       <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>48</v>
+      <c r="G4" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -814,7 +827,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -863,7 +876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -882,8 +895,11 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
@@ -903,7 +919,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -952,7 +968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -970,6 +986,9 @@
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -990,7 +1009,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1011,11 +1030,49 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9">
+        <v>28</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="17" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
